--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123579.5913598792</v>
+        <v>120878.3747084227</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.8448976285503</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>148.6865099692908</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120.158757455868</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>145.9992531132335</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>214.8511447533973</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>13.47759418677252</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.1085592331148</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>18.3996157908788</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>383.687727815432</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863681</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.4611781089002</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>15.58893468863129</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951726</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713891</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>58.06369669853694</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>26.33570977850699</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>90.75043168514662</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1184,13 +1184,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>122.1404816475019</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>51.80351493011995</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1342,22 +1342,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>140.3682845207106</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>187.1335100139209</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.60560965822504</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>200.1122613519393</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.7844293668533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187856</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45339142014729</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>40.57972681915263</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>47.8805811379328</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>214.744168901485</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>280.4563590964344</v>
+        <v>102.1656705247866</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703268</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.66234525555548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>120.83264851408</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426615</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>1.594095449514157</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>252.4360879462835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784683</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>32.27552175740419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0.2811815126425495</v>
+        <v>147.6895341487366</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053454</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>1.632620083627501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>76.17049831699833</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>104.8913819999784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4777567984221</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4777567984221</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739746</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>553.8524235344767</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.4695926787751</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>142.4695926787751</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442523</v>
+        <v>611.5747118810663</v>
       </c>
       <c r="V3" t="n">
-        <v>604.5584496125095</v>
+        <v>376.4226036493235</v>
       </c>
       <c r="W3" t="n">
-        <v>350.3210928843079</v>
+        <v>376.4226036493235</v>
       </c>
       <c r="X3" t="n">
-        <v>142.4695926787751</v>
+        <v>168.5711034437907</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.4695926787751</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.1856968390199</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="C4" t="n">
-        <v>487.249513911113</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1328744987773</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1328744987773</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008669</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>837.8341616692596</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U4" t="n">
-        <v>837.8341616692596</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="V4" t="n">
-        <v>837.8341616692596</v>
+        <v>705.6622257494289</v>
       </c>
       <c r="W4" t="n">
-        <v>837.8341616692596</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="X4" t="n">
-        <v>837.8341616692596</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="Y4" t="n">
-        <v>837.8341616692596</v>
+        <v>439.2845691822508</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>408.4506529122692</v>
+        <v>537.1471341797271</v>
       </c>
       <c r="C5" t="n">
-        <v>408.4506529122692</v>
+        <v>537.1471341797271</v>
       </c>
       <c r="D5" t="n">
-        <v>50.18495430551864</v>
+        <v>537.1471341797271</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551864</v>
+        <v>537.1471341797271</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631518</v>
+        <v>518.5616636838899</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523444</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523444</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275152</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245555</v>
+        <v>239.0325989245567</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.1499114825643</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748849</v>
+        <v>729.4041931748875</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798412</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261722</v>
+        <v>1177.398442107331</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261722</v>
+        <v>923.7469742438489</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261722</v>
+        <v>923.7469742438489</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991608</v>
+        <v>923.7469742438489</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.982255991608</v>
+        <v>923.7469742438489</v>
       </c>
       <c r="Y5" t="n">
-        <v>794.4188945618801</v>
+        <v>923.7469742438489</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>609.2371191145605</v>
+        <v>476.8673065681673</v>
       </c>
       <c r="C6" t="n">
-        <v>434.7840898334335</v>
+        <v>476.8673065681673</v>
       </c>
       <c r="D6" t="n">
-        <v>434.7840898334335</v>
+        <v>327.932896906916</v>
       </c>
       <c r="E6" t="n">
-        <v>275.546634827978</v>
+        <v>312.1864982315309</v>
       </c>
       <c r="F6" t="n">
-        <v>129.012076854863</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="G6" t="n">
-        <v>129.012076854863</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523444</v>
+        <v>67.33488162878736</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="J6" t="n">
-        <v>121.1761561970732</v>
+        <v>49.44206107563444</v>
       </c>
       <c r="K6" t="n">
-        <v>231.3726631383835</v>
+        <v>180.9835516516538</v>
       </c>
       <c r="L6" t="n">
-        <v>425.8680069697353</v>
+        <v>375.4788954830061</v>
       </c>
       <c r="M6" t="n">
-        <v>672.191767640481</v>
+        <v>621.8026561537524</v>
       </c>
       <c r="N6" t="n">
-        <v>939.4436302127032</v>
+        <v>889.0545187259753</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749979</v>
+        <v>1111.317965891494</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948667</v>
+        <v>1270.370911090183</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.34668675797</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152066</v>
+        <v>1390.282497655823</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.97363070375</v>
+        <v>1194.377855207507</v>
       </c>
       <c r="U6" t="n">
-        <v>1189.97363070375</v>
+        <v>966.2567715281116</v>
       </c>
       <c r="V6" t="n">
-        <v>1189.97363070375</v>
+        <v>731.1046632963689</v>
       </c>
       <c r="W6" t="n">
-        <v>935.7362739755481</v>
+        <v>476.8673065681673</v>
       </c>
       <c r="X6" t="n">
-        <v>727.8847737700153</v>
+        <v>476.8673065681673</v>
       </c>
       <c r="Y6" t="n">
-        <v>727.8847737700153</v>
+        <v>476.8673065681673</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.5940474241204</v>
+        <v>469.3995093676804</v>
       </c>
       <c r="C7" t="n">
-        <v>241.5940474241204</v>
+        <v>300.4633264397735</v>
       </c>
       <c r="D7" t="n">
-        <v>182.9438487387296</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="E7" t="n">
-        <v>182.9438487387296</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9438487387296</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387296</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523444</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523444</v>
+        <v>32.61949914709665</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523456</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.4322756223269</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830393</v>
       </c>
       <c r="M7" t="n">
-        <v>615.068857638815</v>
+        <v>615.0688576388159</v>
       </c>
       <c r="N7" t="n">
-        <v>854.728564797482</v>
+        <v>854.7285647974833</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>1207.598809446188</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495183</v>
+        <v>1207.598809446188</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715547</v>
+        <v>1207.598809446188</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656679</v>
+        <v>1207.598809446188</v>
       </c>
       <c r="W7" t="n">
-        <v>690.3761774656679</v>
+        <v>918.1816394092278</v>
       </c>
       <c r="X7" t="n">
-        <v>462.3866265676505</v>
+        <v>690.1920885112105</v>
       </c>
       <c r="Y7" t="n">
-        <v>241.5940474241204</v>
+        <v>469.3995093676804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.2034880760491</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C8" t="n">
-        <v>990.2034880760491</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D8" t="n">
-        <v>631.9377894692987</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>631.9377894692987</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>624.9922887200952</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>209.287538444384</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2314.265897040259</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2060.684836304439</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2060.684836304439</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1707.916181034325</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051861</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760491</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.992271614743</v>
+        <v>866.16833088274</v>
       </c>
       <c r="C10" t="n">
-        <v>496.992271614743</v>
+        <v>697.2321479548331</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>547.1155085424973</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>399.2024149601042</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>252.3124674621938</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>972.46933896416</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>717.7848507582731</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W10" t="n">
-        <v>717.7848507582731</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X10" t="n">
-        <v>717.7848507582731</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="Y10" t="n">
-        <v>496.992271614743</v>
+        <v>1047.81679571298</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.837135195602</v>
+        <v>2129.123602987857</v>
       </c>
       <c r="C11" t="n">
-        <v>1549.87461825519</v>
+        <v>1940.099855499049</v>
       </c>
       <c r="D11" t="n">
-        <v>1191.60891964844</v>
+        <v>1581.834156892299</v>
       </c>
       <c r="E11" t="n">
-        <v>805.8206670501954</v>
+        <v>1196.045904294054</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605878</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656963</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
@@ -5051,7 +5051,7 @@
         <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535298</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3823.746316343285</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3619.76770992465</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3366.273768046178</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="V11" t="n">
-        <v>3035.210880702607</v>
+        <v>3241.957856583173</v>
       </c>
       <c r="W11" t="n">
-        <v>2682.442225432494</v>
+        <v>2889.189201313059</v>
       </c>
       <c r="X11" t="n">
-        <v>2308.976467171414</v>
+        <v>2515.723443051979</v>
       </c>
       <c r="Y11" t="n">
-        <v>1918.837135195602</v>
+        <v>2515.723443051979</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870413</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>612.538132644993</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601521</v>
+        <v>1011.185054749521</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302731</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635254</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2480.475928880028</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.3742724444187</v>
+        <v>1094.452541682644</v>
       </c>
       <c r="C13" t="n">
-        <v>686.4380895165118</v>
+        <v>925.516358754737</v>
       </c>
       <c r="D13" t="n">
-        <v>536.3214501041761</v>
+        <v>775.3997193424012</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>627.4866257600081</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>480.5966782620977</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>313.098695073286</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
         <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664815</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5218,7 +5218,7 @@
         <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925584</v>
@@ -5230,19 +5230,19 @@
         <v>2056.743466925584</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.651773875034</v>
+        <v>1767.651773875035</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.967285669147</v>
+        <v>1767.651773875035</v>
       </c>
       <c r="W13" t="n">
-        <v>1223.550115632187</v>
+        <v>1478.234603838075</v>
       </c>
       <c r="X13" t="n">
-        <v>995.5605647341695</v>
+        <v>1276.101006512883</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.3742724444187</v>
+        <v>1276.101006512883</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.356899915403</v>
+        <v>950.7540666811328</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4207169874961</v>
+        <v>781.8178837532259</v>
       </c>
       <c r="D16" t="n">
-        <v>559.3040775751604</v>
+        <v>631.7012443408903</v>
       </c>
       <c r="E16" t="n">
-        <v>411.3909839927671</v>
+        <v>631.7012443408903</v>
       </c>
       <c r="F16" t="n">
-        <v>264.5010364948568</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G16" t="n">
-        <v>97.30493720973679</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2405.973460530611</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199798</v>
+        <v>1897.29676889775</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993911</v>
+        <v>1642.612280691863</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.13902995695</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058933</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.356899915403</v>
+        <v>1132.402531511372</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232836</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1471.472551934014</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1182.055381897053</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897053</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535234</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284095</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1877.026663243044</v>
+        <v>1874.263433515775</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.342175037157</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W22" t="n">
-        <v>1332.925005000197</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.935454102179</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1428749586493</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.8410298377092</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377092</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253735</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614392</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.489494667949</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>710.248605371872</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135295</v>
+        <v>726.9555321712448</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2324.909903263007</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2105.308438285949</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.233211630147</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.54872342426</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.131553387299</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>908.6039970014846</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532804</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.091168225068</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3090381835201</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,52 +6929,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.222762528164</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322278</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290468</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159286</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311996</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7557007032927</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>366.963653242161</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>199.7675539570409</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614394</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.4393943863702</v>
+        <v>34.43939438636988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>72.45868194084763</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>21.56058953000883</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>159.1791953250079</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>224.3355197601776</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>178.1393817570867</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.27949633792706</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>25.59739403709787</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.80022398524153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.8413214260766</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>140.446559182492</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>119.366239960695</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>37.39347442234302</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.728115292809739</v>
+        <v>184.0188038644575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.9223080965393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>60.19363748756459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.9709121168617</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>34.08691039030751</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>148.7507642442404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>285.9032928766016</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194282</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>284.8903782529635</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>72.44497470121402</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>35.4033308462455</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>978610.0202087354</v>
+        <v>978610.0202087355</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1077398.516134418</v>
+        <v>1077398.516134419</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1077398.516134418</v>
+        <v>1077398.516134419</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1077398.516134418</v>
+        <v>1077398.516134419</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923203</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166186</v>
+        <v>311350.4288166187</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="J2" t="n">
         <v>343037.3048682526</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682525</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657065</v>
+        <v>132804.2190657079</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929381</v>
+        <v>265413.0723929367</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704285</v>
+        <v>189308.2687704282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417402</v>
+        <v>30877.42926417451</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049581</v>
+        <v>65018.3450204954</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.40371273091</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202347</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211562.7951796036</v>
+        <v>211562.7951796032</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="E4" t="n">
         <v>8621.837832097743</v>
@@ -26430,34 +26430,34 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744251</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744266</v>
+        <v>8727.256391744311</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.25639174426</v>
+        <v>8727.256391744317</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744328</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.6503866749</v>
+        <v>72593.65038667501</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641841.5986455281</v>
+        <v>-641841.598645528</v>
       </c>
       <c r="C6" t="n">
-        <v>-68017.91243966437</v>
+        <v>-68017.91243966563</v>
       </c>
       <c r="D6" t="n">
-        <v>-144930.2296174457</v>
+        <v>-144930.2296174442</v>
       </c>
       <c r="E6" t="n">
-        <v>-95986.05143744248</v>
+        <v>-96207.18275141758</v>
       </c>
       <c r="F6" t="n">
-        <v>43879.24988217268</v>
+        <v>43844.51195673752</v>
       </c>
       <c r="G6" t="n">
-        <v>233187.5186526012</v>
+        <v>233152.7807271656</v>
       </c>
       <c r="H6" t="n">
-        <v>233187.5186526011</v>
+        <v>233152.7807271656</v>
       </c>
       <c r="I6" t="n">
-        <v>233187.5186526013</v>
+        <v>233152.7807271657</v>
       </c>
       <c r="J6" t="n">
-        <v>164188.3642334872</v>
+        <v>164153.6263080514</v>
       </c>
       <c r="K6" t="n">
-        <v>202310.0893884271</v>
+        <v>202275.351462991</v>
       </c>
       <c r="L6" t="n">
-        <v>168169.1736321055</v>
+        <v>168134.4357066702</v>
       </c>
       <c r="M6" t="n">
-        <v>151290.1149398703</v>
+        <v>151255.3770144346</v>
       </c>
       <c r="N6" t="n">
-        <v>183347.9445205777</v>
+        <v>183313.206595142</v>
       </c>
       <c r="O6" t="n">
-        <v>233187.5186526011</v>
+        <v>233152.7807271655</v>
       </c>
       <c r="P6" t="n">
-        <v>233187.5186526015</v>
+        <v>233152.7807271655</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695744</v>
+        <v>717.3319511695755</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154305</v>
+        <v>383.687727815432</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000961</v>
+        <v>103.2769374000972</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479647</v>
+        <v>216.7329409479636</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139243</v>
+        <v>119.9738478139258</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="E4" t="n">
+        <v>328.6359918489709</v>
+      </c>
+      <c r="F4" t="n">
+        <v>203.4874641506387</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.713880001506</v>
+      </c>
+      <c r="K4" t="n">
+        <v>119.973847813926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>256.8971042846067</v>
+      </c>
+      <c r="M4" t="n">
         <v>328.6359918489707</v>
       </c>
-      <c r="F4" t="n">
-        <v>203.4874641506386</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015064</v>
-      </c>
-      <c r="K4" t="n">
-        <v>119.9738478139241</v>
-      </c>
-      <c r="L4" t="n">
-        <v>256.8971042846084</v>
-      </c>
-      <c r="M4" t="n">
-        <v>328.6359918489709</v>
-      </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139243</v>
+        <v>119.9738478139258</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>82.90736084158459</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>221.0445907091782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>27.28630810877073</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>59.68344266407084</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.363201126168576</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.6600491370555</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6252824303658144</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>388.4764299508327</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.7312631623379</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863698</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623095</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.07200554096715</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>142.0561457667696</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713749</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>90.55177631967541</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643607</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>175.1378497274476</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>210.2681208772588</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>84.51770333273183</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>114.5030851146842</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>145.85886960049</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.05038390046132e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-3.483773269863377e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.697492886580033e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.720557692105558e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30706,10 +30706,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-4.265789856397207e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365121</v>
+        <v>2.883746537365126</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.5331692257906</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023588</v>
+        <v>366.8233736023594</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791137</v>
+        <v>506.3606591791145</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284032</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974779</v>
+        <v>485.8788493974787</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562764</v>
+        <v>414.6863567562771</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020787</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189773</v>
+        <v>53.12316808189782</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438659</v>
+        <v>335.0143230438664</v>
       </c>
       <c r="M6" t="n">
-        <v>390.945913387418</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189113</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.104776934867</v>
+        <v>367.1047769348676</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392924</v>
+        <v>95.79765189392938</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989044</v>
+        <v>6.219132670989054</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572053</v>
+        <v>38.9005589257206</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402917</v>
+        <v>91.45394400402931</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565105</v>
+        <v>58.16268574565113</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060653</v>
+        <v>5.526983886060662</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864674</v>
+        <v>0.07055724109864685</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>265.0744558279815</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.6808312360685</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31911,46 +31911,46 @@
         <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L21" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321073</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>608.2694430035896</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745949</v>
+        <v>481.4297026814658</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>342.4905264542646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8027404478645</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>687.0167715190033</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900688</v>
+        <v>63.70847814900725</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573783</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252595</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.014425951841</v>
+        <v>276.0144259518418</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318123</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757912</v>
+        <v>255.780637975792</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010069</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243845</v>
+        <v>89.10649401243896</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.39508886044324</v>
+        <v>18.93640691959584</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710205</v>
+        <v>132.8701925010297</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639917</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653997</v>
+        <v>248.8118794654003</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355779</v>
+        <v>269.9513763355786</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6877278154305</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047356</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793411</v>
+        <v>267.0505052237835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491135</v>
+        <v>22.15508137491152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,10 +35264,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>474.0150488837098</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>122.9404219059632</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.69905715004698</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L21" t="n">
-        <v>57.74979223202556</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>469.7150632237154</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525766</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>211.1488143709312</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>310.2064960034201</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>544.4205270745589</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
